--- a/Mod Ideas.xlsx
+++ b/Mod Ideas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>New Guns</t>
   </si>
@@ -25,6 +25,18 @@
   </si>
   <si>
     <t>Jumping</t>
+  </si>
+  <si>
+    <t>Shoot small sphere, that expands to bug sphere (like a grenade launcher)</t>
+  </si>
+  <si>
+    <t>fires at players current postion</t>
+  </si>
+  <si>
+    <t>progressions</t>
+  </si>
+  <si>
+    <t>increasing enemys, the sweets</t>
   </si>
 </sst>
 </file>
@@ -366,27 +378,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Mod Ideas.xlsx
+++ b/Mod Ideas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>New Guns</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>increasing enemys, the sweets</t>
+  </si>
+  <si>
+    <t>tutorial</t>
+  </si>
+  <si>
+    <t>when you gain a new weapon</t>
   </si>
 </sst>
 </file>
@@ -378,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,6 +419,14 @@
       </c>
       <c r="D7" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
